--- a/Alcohol_detector_geüpdatete_bill_of_materials.xlsx
+++ b/Alcohol_detector_geüpdatete_bill_of_materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\2EAIA_2021-2022\Elektronische_Systemen_2\Elektronische_systemen_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD54FFE-9944-4523-80EA-2731F158B4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD95D6B-5497-4009-A553-49C2F44B40CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4800" windowWidth="29040" windowHeight="15720" xr2:uid="{D9BF0B0C-6299-450B-AB13-B73564D635F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D9BF0B0C-6299-450B-AB13-B73564D635F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Conrad</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>https://www.mouser.be/ProductDetail/Bourns/CR0805-J-5R1ELF?qs=sGAEpiMZZMtlubZbdhIBIPJRFm2x4gVbh7B4%2FCTZAHo%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/SparkFun/PRT-16279?qs=sGAEpiMZZMv0NwlthflBi6AWCtMz4rqn7UuOuXTvGVo%3D</t>
+  </si>
+  <si>
+    <t>Arduino nano socket</t>
   </si>
 </sst>
 </file>
@@ -591,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F61190-54F6-4F78-8B9B-0AB4459BC043}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,13 +730,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -738,92 +744,92 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -831,13 +837,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -845,13 +851,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -859,44 +865,58 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:J1"/>
@@ -906,18 +926,19 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{ED30F8FA-D25E-48CB-AFE0-88464F6355CC}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{5E37EA62-C1D8-428B-94E2-7D4D178350D0}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{2DF92B42-4060-48C8-ADF7-D4739FF845D6}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{38FECDEA-AA78-430D-BDFC-C0F1DAE23BCF}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{D16EAD34-6005-4BE3-ABE1-9331493B2D89}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{096F5BAD-7E68-4290-8030-E203A0D0FC45}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{05AF469A-B72C-48F1-92EC-4A24205E97C9}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{67B8D2B5-20D3-4756-A34F-85180A0EA37F}"/>
-    <hyperlink ref="D8" r:id="rId10" xr:uid="{EDA28E2B-AC67-4282-9F5F-0D7E7D30F98E}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{EEE710DA-BF8E-4FF6-ACD3-556F93A36C00}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{C8F4C0C6-CA40-4B69-B370-8CCCD17A3C43}"/>
-    <hyperlink ref="D11" r:id="rId13" xr:uid="{41FA7796-3FED-42E1-B73E-865C40DBF573}"/>
-    <hyperlink ref="D12" r:id="rId14" xr:uid="{23AB77B6-ACAD-4DBE-A93A-F45199AA453B}"/>
-    <hyperlink ref="D13" r:id="rId15" xr:uid="{1181400C-8529-4722-BE4A-BB75F16BB47F}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{F8F1D32B-6F0D-4B4D-8427-EF45A72BED84}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{38FECDEA-AA78-430D-BDFC-C0F1DAE23BCF}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{D16EAD34-6005-4BE3-ABE1-9331493B2D89}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{096F5BAD-7E68-4290-8030-E203A0D0FC45}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{05AF469A-B72C-48F1-92EC-4A24205E97C9}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{67B8D2B5-20D3-4756-A34F-85180A0EA37F}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{EDA28E2B-AC67-4282-9F5F-0D7E7D30F98E}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{EEE710DA-BF8E-4FF6-ACD3-556F93A36C00}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{C8F4C0C6-CA40-4B69-B370-8CCCD17A3C43}"/>
+    <hyperlink ref="D12" r:id="rId13" xr:uid="{41FA7796-3FED-42E1-B73E-865C40DBF573}"/>
+    <hyperlink ref="D13" r:id="rId14" xr:uid="{23AB77B6-ACAD-4DBE-A93A-F45199AA453B}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{1181400C-8529-4722-BE4A-BB75F16BB47F}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{F8F1D32B-6F0D-4B4D-8427-EF45A72BED84}"/>
+    <hyperlink ref="D6" r:id="rId17" xr:uid="{A4F3977A-9778-43BA-8F53-DCFC712548EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Alcohol_detector_geüpdatete_bill_of_materials.xlsx
+++ b/Alcohol_detector_geüpdatete_bill_of_materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\2EAIA_2021-2022\Elektronische_Systemen_2\Elektronische_systemen_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD95D6B-5497-4009-A553-49C2F44B40CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC67893-F815-4B51-843F-D435182619A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D9BF0B0C-6299-450B-AB13-B73564D635F9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Conrad</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>Arduino nano socket</t>
+  </si>
+  <si>
+    <t>https://www.bitsandparts.nl/Gassensor-MQ-3-(alcohol-ethanol)-zonder-breakout-p1093947</t>
+  </si>
+  <si>
+    <t>www.bitsandparts.nl</t>
+  </si>
+  <si>
+    <t>MQ3 sensor</t>
   </si>
 </sst>
 </file>
@@ -600,14 +609,14 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="220.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -914,6 +923,26 @@
       </c>
       <c r="D18" s="2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
